--- a/Scripts-Scrapping_principal/Resultados_PreFiltering/df_limpio.xlsx
+++ b/Scripts-Scrapping_principal/Resultados_PreFiltering/df_limpio.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ElementoModificado</t>
+          <t>Elemento1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
